--- a/reporte_Citas6.xlsx
+++ b/reporte_Citas6.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Numero</t>
   </si>
@@ -47,31 +47,43 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>2025-06-11</t>
+    <t>2025-06-03</t>
   </si>
   <si>
     <t>08:00:00</t>
   </si>
   <si>
-    <t>Yan Tovar</t>
+    <t>Paciente ApePaciente</t>
   </si>
   <si>
     <t>Pepito Perez</t>
   </si>
   <si>
-    <t>consultorio 1 editado</t>
+    <t>consultorio 1</t>
+  </si>
+  <si>
+    <t>Cumplida</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
   </si>
   <si>
     <t>Cancelada</t>
   </si>
   <si>
-    <t>Ninguna</t>
+    <t>2025-06-07</t>
   </si>
   <si>
     <t>Solicitada</t>
   </si>
   <si>
-    <t>2025-06-13</t>
+    <t>08:20:00</t>
+  </si>
+  <si>
+    <t>Consultorio 2</t>
   </si>
 </sst>
 </file>
@@ -453,7 +465,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="D2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -485,10 +497,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="D3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -509,7 +521,7 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
@@ -517,10 +529,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -541,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>16</v>
@@ -549,13 +561,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="D5">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>1080</v>
@@ -570,10 +582,10 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
